--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87983DE-9ACF-48C6-8831-FB27431735B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF58F5-F76E-466B-86A1-A7927036676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF58F5-F76E-466B-86A1-A7927036676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A020E-67B3-4134-B58C-EF1180061F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="157">
   <si>
     <t>ScreenName</t>
   </si>
@@ -499,6 +499,18 @@
   </si>
   <si>
     <t>PersonSocialHistory</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>RecordAlertAndTasks</t>
+  </si>
+  <si>
+    <t>OrganizationProviderSearch</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
   </si>
 </sst>
 </file>
@@ -866,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,99 +1632,87 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="C52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1721,42 +1721,43 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>68</v>
+      <c r="C60" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1764,13 +1765,13 @@
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1778,42 +1779,41 @@
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="B65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1912,28 +1912,28 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="B73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1942,73 +1942,73 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="B75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="B76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B77" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4"/>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2017,58 +2017,58 @@
     </row>
     <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="B80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="B81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="B82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2122,43 +2122,43 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="B87" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2167,28 +2167,28 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="B90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
-      </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2482,42 +2482,43 @@
     </row>
     <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="B111" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="4">
-        <v>1</v>
-      </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2525,42 +2526,41 @@
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
-      </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2569,86 +2569,87 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
       </c>
-      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
-      </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2656,57 +2657,52 @@
     </row>
     <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="B123" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D124" s="4">
-        <v>1</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2715,13 +2711,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2730,13 +2726,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2745,13 +2741,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2760,13 +2756,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2775,13 +2771,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2790,13 +2786,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2805,13 +2801,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2820,13 +2816,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2835,13 +2831,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2850,65 +2846,95 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D135" s="4">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
+      <c r="D137" s="4">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="6">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="6">
-        <v>1</v>
-      </c>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
       <c r="E139" s="4"/>
     </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E137" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A020E-67B3-4134-B58C-EF1180061F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FA937-13AD-4A32-9F95-C00097BBA858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$137</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
   <si>
     <t>ScreenName</t>
   </si>
@@ -878,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1631,103 +1631,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>68</v>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>153</v>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>65</v>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1736,84 +1749,88 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>155</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>69</v>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>70</v>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>71</v>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1822,13 +1839,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1837,43 +1854,43 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1882,58 +1899,58 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1942,103 +1959,103 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2047,13 +2064,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2062,13 +2079,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2077,13 +2094,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2092,58 +2109,58 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2152,43 +2169,43 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2197,13 +2214,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2212,13 +2229,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2227,13 +2244,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2242,13 +2259,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2257,13 +2274,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2272,13 +2289,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2287,13 +2304,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2302,13 +2319,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2317,13 +2334,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2332,13 +2349,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2347,13 +2364,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2362,13 +2379,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2377,13 +2394,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2392,13 +2409,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2407,103 +2424,100 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
-      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2512,197 +2526,199 @@
     </row>
     <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
-      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>64</v>
+    </row>
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>64</v>
+      <c r="C120" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
-      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>123</v>
+      <c r="A121" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>124</v>
+      <c r="C122" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2711,13 +2727,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2726,13 +2742,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2741,13 +2757,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2756,13 +2772,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2771,13 +2787,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2786,13 +2802,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2801,13 +2817,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2816,13 +2832,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2831,13 +2847,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2846,13 +2862,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D135" s="4">
         <v>1</v>
@@ -2860,81 +2876,51 @@
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="4">
+      <c r="A136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="6">
         <v>1</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D137" s="4">
+      <c r="C137" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="6">
         <v>1</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1</v>
-      </c>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E137" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3083,16 +3069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3101,7 +3077,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3318,17 +3294,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3336,7 +3312,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3353,4 +3329,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FA937-13AD-4A32-9F95-C00097BBA858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC114-D630-4F69-8066-AF6C5DDBEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$136</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="156">
   <si>
     <t>ScreenName</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>OverstayReportSubmission</t>
-  </si>
-  <si>
-    <t>NewCase</t>
   </si>
   <si>
     <t>cares\Case.xlsx</t>
@@ -588,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,6 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,10 +876,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1678,13 +1676,13 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -2453,13 +2451,13 @@
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2467,13 +2465,13 @@
     </row>
     <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2626,69 +2624,70 @@
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>154</v>
+      <c r="C120" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>156</v>
+      <c r="A121" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>156</v>
+      <c r="C121" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -2700,7 +2699,7 @@
         <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>128</v>
@@ -2715,7 +2714,7 @@
         <v>129</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>129</v>
@@ -2730,7 +2729,7 @@
         <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>130</v>
@@ -2745,7 +2744,7 @@
         <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>131</v>
@@ -2760,7 +2759,7 @@
         <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>132</v>
@@ -2775,7 +2774,7 @@
         <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>133</v>
@@ -2790,7 +2789,7 @@
         <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>134</v>
@@ -2805,7 +2804,7 @@
         <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>135</v>
@@ -2817,13 +2816,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2835,7 +2834,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>138</v>
@@ -2850,7 +2849,7 @@
         <v>139</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>139</v>
@@ -2861,16 +2860,16 @@
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="B135" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="6">
         <v>1</v>
       </c>
       <c r="E135" s="4"/>
@@ -2880,7 +2879,7 @@
         <v>141</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>141</v>
@@ -2891,18 +2890,10 @@
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D137" s="6">
-        <v>1</v>
-      </c>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -2912,15 +2903,8 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E137" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E136" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2963,10 +2947,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2980,13 +2964,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2997,13 +2981,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3014,13 +2998,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3031,13 +3015,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3048,13 +3032,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3069,12 +3053,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3295,19 +3280,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3332,11 +3318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC114-D630-4F69-8066-AF6C5DDBEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E46E55-90C2-4D42-91D8-5103782F5B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,10 +504,10 @@
     <t>RecordAlertAndTasks</t>
   </si>
   <si>
-    <t>OrganizationProviderSearch</t>
-  </si>
-  <si>
     <t>FolioTask</t>
+  </si>
+  <si>
+    <t>FolioProviderSearch</t>
   </si>
 </sst>
 </file>
@@ -878,8 +878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -3063,6 +3063,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3279,15 +3288,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
@@ -3299,6 +3299,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3315,12 +3323,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E46E55-90C2-4D42-91D8-5103782F5B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7417B7CE-E2E0-401C-843A-30424A9B7A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3063,15 +3063,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3288,6 +3279,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
@@ -3299,14 +3299,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3323,4 +3315,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7417B7CE-E2E0-401C-843A-30424A9B7A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9034F53-F5F0-45F4-A29E-D5C3F3FB42C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="171">
   <si>
     <t>ScreenName</t>
   </si>
@@ -222,195 +222,201 @@
     <t>FolioPromoteToCase</t>
   </si>
   <si>
+    <t>LocationServicesOrg</t>
+  </si>
+  <si>
+    <t>CredentialsOrg</t>
+  </si>
+  <si>
+    <t>SpecializationsOrg</t>
+  </si>
+  <si>
+    <t>OrganizationProviderSearch</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>RelatedPersons</t>
+  </si>
+  <si>
+    <t>PersonSearch</t>
+  </si>
+  <si>
+    <t>cares\Person.xlsx</t>
+  </si>
+  <si>
+    <t>PersonContactLogMembers</t>
+  </si>
+  <si>
+    <t>PersonDetails</t>
+  </si>
+  <si>
+    <t>PersonAKA</t>
+  </si>
+  <si>
+    <t>PersonHouseholdMemberships</t>
+  </si>
+  <si>
+    <t>PersonAddresses</t>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+  </si>
+  <si>
+    <t>PersonRelationships</t>
+  </si>
+  <si>
+    <t>PersonTribalInformation</t>
+  </si>
+  <si>
+    <t>ActivePersonAddress</t>
+  </si>
+  <si>
+    <t>InactivePersonAddress</t>
+  </si>
+  <si>
+    <t>PersonBIBackgroundChecks</t>
+  </si>
+  <si>
+    <t>PersonHistory</t>
+  </si>
+  <si>
+    <t>PersonBIROI</t>
+  </si>
+  <si>
+    <t>PersonBIJSI</t>
+  </si>
+  <si>
+    <t>PersonEIEducation</t>
+  </si>
+  <si>
+    <t>PersonHealthInformation</t>
+  </si>
+  <si>
+    <t>PersonBHDiagnosis</t>
+  </si>
+  <si>
+    <t>PersonBehavioralEmotionalNeeds</t>
+  </si>
+  <si>
+    <t>PersonalStrengthsCopingSkills</t>
+  </si>
+  <si>
+    <t>SubstanceDependencyTreatment</t>
+  </si>
+  <si>
+    <t>PersonLegalIssues</t>
+  </si>
+  <si>
+    <t>AlcoholDependencyTreatment</t>
+  </si>
+  <si>
+    <t>AlcoholOrSubstanceUse</t>
+  </si>
+  <si>
+    <t>OtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPrescriptionDrugs</t>
+  </si>
+  <si>
+    <t>PersonAllergies</t>
+  </si>
+  <si>
+    <t>PersonDentalExam</t>
+  </si>
+  <si>
+    <t>HearingImpairmentAndDeafness</t>
+  </si>
+  <si>
+    <t>PersonHospitalizations</t>
+  </si>
+  <si>
+    <t>PersonImmunizations</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequiredInformation</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequired</t>
+  </si>
+  <si>
+    <t>PersonMedicalExamsInformation</t>
+  </si>
+  <si>
+    <t>PersonMedicationsInformation</t>
+  </si>
+  <si>
+    <t>PersonPregnancy</t>
+  </si>
+  <si>
+    <t>PersonRegionalCenterInformation</t>
+  </si>
+  <si>
+    <t>PersonSpecialDietRequired</t>
+  </si>
+  <si>
+    <t>PersonHIMediCal</t>
+  </si>
+  <si>
+    <t>PersonHIMedicaid</t>
+  </si>
+  <si>
+    <t>PersonMentalHealth</t>
+  </si>
+  <si>
+    <t>PersonOtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPHVisualImpairement</t>
+  </si>
+  <si>
+    <t>PostSecondaryEducationSupport</t>
+  </si>
+  <si>
+    <t>PriorAdoptionAndGuardianship</t>
+  </si>
+  <si>
+    <t>PriorAdoption</t>
+  </si>
+  <si>
+    <t>PriorGuardianship</t>
+  </si>
+  <si>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>PersonRelated</t>
+  </si>
+  <si>
+    <t>PersonSocialHistory</t>
+  </si>
+  <si>
     <t>FolioPlacement</t>
   </si>
   <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
     <t>FolioChildLocations</t>
   </si>
   <si>
     <t>FolioChildLocationAbsences</t>
   </si>
   <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
     <t>ChildLocationCorrespondences</t>
   </si>
   <si>
     <t>PlacementPreservationStrategy</t>
   </si>
   <si>
-    <t>LocationServicesOrg</t>
-  </si>
-  <si>
-    <t>CredentialsOrg</t>
-  </si>
-  <si>
-    <t>SpecializationsOrg</t>
-  </si>
-  <si>
-    <t>ProviderSearch</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Addresses</t>
-  </si>
-  <si>
-    <t>RelatedPersons</t>
-  </si>
-  <si>
-    <t>PersonSearch</t>
-  </si>
-  <si>
-    <t>cares\Person.xlsx</t>
-  </si>
-  <si>
-    <t>PersonContactLogMembers</t>
-  </si>
-  <si>
-    <t>PersonDetails</t>
-  </si>
-  <si>
-    <t>PersonAKA</t>
-  </si>
-  <si>
-    <t>PersonHouseholdMemberships</t>
-  </si>
-  <si>
-    <t>PersonAddresses</t>
-  </si>
-  <si>
-    <t>PersonPhone</t>
-  </si>
-  <si>
-    <t>PersonRelationships</t>
-  </si>
-  <si>
-    <t>PersonTribalInformation</t>
-  </si>
-  <si>
-    <t>ActivePersonAddress</t>
-  </si>
-  <si>
-    <t>InactivePersonAddress</t>
-  </si>
-  <si>
-    <t>PersonBIBackgroundChecks</t>
-  </si>
-  <si>
-    <t>PersonHistory</t>
-  </si>
-  <si>
-    <t>PersonBIROI</t>
-  </si>
-  <si>
-    <t>PersonBIJSI</t>
-  </si>
-  <si>
-    <t>PersonEIEducation</t>
-  </si>
-  <si>
-    <t>PersonHealthInformation</t>
-  </si>
-  <si>
-    <t>PersonBHDiagnosis</t>
-  </si>
-  <si>
-    <t>PersonBehavioralEmotionalNeeds</t>
-  </si>
-  <si>
-    <t>PersonalStrengthsCopingSkills</t>
-  </si>
-  <si>
-    <t>SubstanceDependencyTreatment</t>
-  </si>
-  <si>
-    <t>PersonLegalIssues</t>
-  </si>
-  <si>
-    <t>AlcoholDependencyTreatment</t>
-  </si>
-  <si>
-    <t>AlcoholOrSubstanceUse</t>
-  </si>
-  <si>
-    <t>OtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPrescriptionDrugs</t>
-  </si>
-  <si>
-    <t>PersonAllergies</t>
-  </si>
-  <si>
-    <t>PersonDentalExam</t>
-  </si>
-  <si>
-    <t>HearingImpairmentAndDeafness</t>
-  </si>
-  <si>
-    <t>PersonHospitalizations</t>
-  </si>
-  <si>
-    <t>PersonImmunizations</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequiredInformation</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequired</t>
-  </si>
-  <si>
-    <t>PersonMedicalExamsInformation</t>
-  </si>
-  <si>
-    <t>PersonMedicationsInformation</t>
-  </si>
-  <si>
-    <t>PersonPregnancy</t>
-  </si>
-  <si>
-    <t>PersonRegionalCenterInformation</t>
-  </si>
-  <si>
-    <t>PersonSpecialDietRequired</t>
-  </si>
-  <si>
-    <t>PersonHIMediCal</t>
-  </si>
-  <si>
-    <t>PersonHIMedicaid</t>
-  </si>
-  <si>
-    <t>PersonMentalHealth</t>
-  </si>
-  <si>
-    <t>PersonOtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPHVisualImpairement</t>
-  </si>
-  <si>
-    <t>PostSecondaryEducationSupport</t>
-  </si>
-  <si>
-    <t>PriorAdoptionAndGuardianship</t>
-  </si>
-  <si>
-    <t>PriorAdoption</t>
-  </si>
-  <si>
-    <t>PriorGuardianship</t>
-  </si>
-  <si>
-    <t>SchoolDisciplinaryIssues</t>
-  </si>
-  <si>
-    <t>cares\Placement.xlsx</t>
-  </si>
-  <si>
-    <t>FolioChildLocationContactLogs</t>
-  </si>
-  <si>
     <t>Removal</t>
   </si>
   <si>
@@ -420,12 +426,30 @@
     <t>OverstayReportSubmission</t>
   </si>
   <si>
+    <t>FolioProviderSearch</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>RecordAlertAndTasks</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
+  </si>
+  <si>
+    <t>ProviderOptionsDocuments</t>
+  </si>
+  <si>
+    <t>FolioChildLocationOverstayRepo</t>
+  </si>
+  <si>
+    <t>CaseAssignments</t>
+  </si>
+  <si>
     <t>cares\Case.xlsx</t>
   </si>
   <si>
-    <t>CaseAssignments</t>
-  </si>
-  <si>
     <t>CaseChangeAssignments</t>
   </si>
   <si>
@@ -468,6 +492,39 @@
     <t>CaseTribalInquiry</t>
   </si>
   <si>
+    <t>NewCase</t>
+  </si>
+  <si>
+    <t>EligibilityDetails</t>
+  </si>
+  <si>
+    <t>ChildSupportEligibilityInfo</t>
+  </si>
+  <si>
+    <t>MediCalEligibilityRequestInfo</t>
+  </si>
+  <si>
+    <t>EligibilityDocuments</t>
+  </si>
+  <si>
+    <t>EligibilityHomeOfRemoval</t>
+  </si>
+  <si>
+    <t>FosterCareEligibilityInfo</t>
+  </si>
+  <si>
+    <t>EligibilityTask</t>
+  </si>
+  <si>
+    <t>EligibilityAssignments</t>
+  </si>
+  <si>
+    <t>ChildIncomeAndProperty</t>
+  </si>
+  <si>
+    <t>EligibilityGenerateDocument</t>
+  </si>
+  <si>
     <t>InitialScreening</t>
   </si>
   <si>
@@ -492,22 +549,10 @@
     <t>SauceConfirmation</t>
   </si>
   <si>
-    <t>PersonRelated</t>
-  </si>
-  <si>
-    <t>PersonSocialHistory</t>
-  </si>
-  <si>
-    <t>ProviderOptions</t>
-  </si>
-  <si>
-    <t>RecordAlertAndTasks</t>
-  </si>
-  <si>
-    <t>FolioTask</t>
-  </si>
-  <si>
-    <t>FolioProviderSearch</t>
+    <t>FolioBackgroundChecks</t>
+  </si>
+  <si>
+    <t>FolioInspections</t>
   </si>
 </sst>
 </file>
@@ -876,10 +921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C124" sqref="A109:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1631,13 +1676,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1646,13 +1691,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1661,13 +1706,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1676,13 +1721,13 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1690,13 +1735,13 @@
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1704,13 +1749,13 @@
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1718,13 +1763,13 @@
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1732,13 +1777,13 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1747,13 +1792,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1762,13 +1807,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1777,13 +1822,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1792,13 +1837,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1807,13 +1852,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1822,13 +1867,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1837,13 +1882,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1852,13 +1897,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1867,13 +1912,13 @@
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1882,13 +1927,13 @@
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1897,13 +1942,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1912,13 +1957,13 @@
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -1927,13 +1972,13 @@
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1942,13 +1987,13 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1957,13 +2002,13 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1972,13 +2017,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -1987,13 +2032,13 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2002,13 +2047,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2017,13 +2062,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2032,13 +2077,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2047,13 +2092,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2062,13 +2107,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2077,13 +2122,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2092,13 +2137,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2107,13 +2152,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2122,13 +2167,13 @@
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2137,13 +2182,13 @@
     </row>
     <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2152,13 +2197,13 @@
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2167,13 +2212,13 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2182,13 +2227,13 @@
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2197,13 +2242,13 @@
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2212,13 +2257,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2227,13 +2272,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2242,13 +2287,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2257,13 +2302,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2272,13 +2317,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2287,13 +2332,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2302,13 +2347,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2317,13 +2362,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2332,13 +2377,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2347,13 +2392,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2362,13 +2407,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2377,13 +2422,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2392,13 +2437,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2407,13 +2452,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2422,13 +2467,13 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2437,13 +2482,13 @@
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2451,13 +2496,13 @@
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2465,13 +2510,13 @@
     </row>
     <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2479,13 +2524,13 @@
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2494,13 +2539,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2509,13 +2554,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2527,7 +2572,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>122</v>
@@ -2538,13 +2583,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2553,13 +2598,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2568,13 +2613,13 @@
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2582,13 +2627,13 @@
     </row>
     <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2596,13 +2641,13 @@
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2610,13 +2655,13 @@
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2624,13 +2669,13 @@
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2638,13 +2683,13 @@
     </row>
     <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2652,13 +2697,13 @@
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2666,58 +2711,56 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>127</v>
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>128</v>
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
       </c>
-      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2726,13 +2769,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2741,13 +2784,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2756,13 +2799,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2771,13 +2814,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2786,13 +2829,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2801,13 +2844,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2816,13 +2859,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2831,13 +2874,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2846,13 +2889,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2860,51 +2903,261 @@
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D135" s="6">
+      <c r="A135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="4">
         <v>1</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D136" s="6">
+      <c r="A136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="4">
         <v>1</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="A137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="A138" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
       <c r="E138" s="4"/>
     </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E136" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E138" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2947,10 +3200,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2964,13 +3217,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2981,13 +3234,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2998,13 +3251,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3015,13 +3268,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3032,13 +3285,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3053,13 +3306,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3280,20 +3532,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3318,9 +3569,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9034F53-F5F0-45F4-A29E-D5C3F3FB42C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA97A82-52D2-4EFC-B4FA-E3EBD54C0F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="172">
   <si>
     <t>ScreenName</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>SauceConfirmation</t>
+  </si>
+  <si>
+    <t>PlacementStability</t>
   </si>
   <si>
     <t>FolioBackgroundChecks</t>
@@ -921,10 +924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C124" sqref="A109:C124"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3143,7 +3146,7 @@
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -3153,6 +3156,20 @@
         <v>170</v>
       </c>
       <c r="D151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3306,15 +3323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3531,6 +3539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3542,14 +3559,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3568,6 +3577,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38601424-DC71-4892-8084-5896A0EBC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB2E134-FDF0-4092-9F53-B6B5C2AB8432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="174">
   <si>
     <t>ScreenName</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>KnowledgeArticle</t>
+  </si>
+  <si>
+    <t>ChildLocationAuditHistory</t>
   </si>
 </sst>
 </file>
@@ -936,10 +939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFB155"/>
+  <dimension ref="A1:XFB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7324,6 +7327,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E153" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7474,25 +7491,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7709,25 +7707,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7746,6 +7745,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD021FC-1DD1-4A45-BD27-EFCF122043BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBC89D-B2EF-4F16-AEC3-55C669FBB1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF966FEC-AD0D-465D-8FD9-D7A939C1637D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDataMappingSheet_SD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -960,7 +960,7 @@
   <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3451,23 +3451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9c4c5234-a13c-46e9-bb3e-79851453ff02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006332E1200EBB194C8A0F94855314E5FD" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0f1aa62f66198b39d7dd8f48fbeb6e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9c4c5234-a13c-46e9-bb3e-79851453ff02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b223f5204314d0fbacd63c191618a518" ns3:_="">
     <xsd:import namespace="9c4c5234-a13c-46e9-bb3e-79851453ff02"/>
@@ -3655,31 +3638,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05F740AF-D881-464A-8557-15B2CBDE54B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c4c5234-a13c-46e9-bb3e-79851453ff02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A3C0BD-78EC-4188-BE3B-02A627D67E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9c4c5234-a13c-46e9-bb3e-79851453ff02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960918E9-E7FD-4F49-A829-9D04AE24BD38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3697,6 +3673,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A3C0BD-78EC-4188-BE3B-02A627D67E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05F740AF-D881-464A-8557-15B2CBDE54B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c4c5234-a13c-46e9-bb3e-79851453ff02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3675B72-D772-43CC-AB92-D24E4EF14814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6416BD-DC8A-4761-A54E-C6D7C07AB71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
   <si>
     <t>ScreenName</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>Related</t>
   </si>
   <si>
     <t>RecordAlertsAndTasks</t>
@@ -978,9 +981,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
@@ -2699,13 +2702,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2936,118 +2939,118 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>145</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139">
+      <c r="C139" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
         <v>143</v>
       </c>
       <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>146</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D141" s="4">
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D142" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
@@ -3055,13 +3058,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -3083,28 +3086,27 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
-      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -3113,13 +3115,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3128,13 +3130,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3143,13 +3145,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3158,13 +3160,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3173,13 +3175,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3188,13 +3190,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3203,13 +3205,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3218,13 +3220,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3233,13 +3235,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3248,13 +3250,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3263,13 +3265,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3278,41 +3280,42 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D163" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>170</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C164" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164">
+      <c r="C164" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3320,13 +3323,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -3334,13 +3337,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -3348,13 +3351,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>120</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -3362,15 +3365,29 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>120</v>
       </c>
       <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>175</v>
       </c>
-      <c r="D169">
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170">
         <v>1</v>
       </c>
     </row>
@@ -3389,25 +3406,38 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
-    <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3415,57 +3445,91 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3568,14 +3632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
@@ -3585,24 +3641,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A09924-B590-4720-9BBE-6380EA058C35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3614,6 +3652,26 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6416BD-DC8A-4761-A54E-C6D7C07AB71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045DA4DF-6D6A-412A-A441-EDA4B0A6FDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="189">
   <si>
     <t>ScreenName</t>
   </si>
@@ -579,6 +579,30 @@
   </si>
   <si>
     <t>RecordAlertsAndTasks</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
+  </si>
+  <si>
+    <t>TribalPlacementPreferences</t>
+  </si>
+  <si>
+    <t>ParentGuardPlacementPreferences</t>
+  </si>
+  <si>
+    <t>YouthPlacementPreferences</t>
+  </si>
+  <si>
+    <t>PlacementNeeds</t>
+  </si>
+  <si>
+    <t>DocumentDistributions</t>
+  </si>
+  <si>
+    <t>CourtReports</t>
+  </si>
+  <si>
+    <t>ReleasesOfInformationAndConsentForm</t>
   </si>
 </sst>
 </file>
@@ -660,13 +684,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2953,146 +2978,154 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C140" t="s">
-        <v>145</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
         <v>143</v>
       </c>
       <c r="C141" t="s">
+        <v>145</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>146</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D142" s="4">
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
+      <c r="D142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D143" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D145" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -3100,73 +3133,69 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
-      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
       </c>
-      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
       </c>
-      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3175,13 +3204,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3190,13 +3219,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3205,13 +3234,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3220,13 +3249,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3235,13 +3264,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3250,13 +3279,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3265,13 +3294,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3280,13 +3309,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3295,83 +3324,87 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" s="4" t="s">
+      <c r="B168" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D164" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" t="s">
-        <v>170</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" t="s">
-        <v>120</v>
-      </c>
-      <c r="C166" t="s">
-        <v>171</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>172</v>
-      </c>
-      <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" t="s">
-        <v>172</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>173</v>
-      </c>
-      <c r="B168" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" t="s">
-        <v>173</v>
-      </c>
-      <c r="D168">
+      <c r="D168" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
         <v>120</v>
       </c>
       <c r="C169" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3379,17 +3412,133 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>175</v>
       </c>
-      <c r="B170" t="s">
-        <v>120</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" t="s">
         <v>175</v>
       </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3397,25 +3546,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3632,10 +3762,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3658,20 +3818,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
